--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\3Klasse\syp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\3Klasse\syp\repositories\CHAT-PACK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Task</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>server comm. Database</t>
+  </si>
+  <si>
+    <t>create logo</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,11 +480,11 @@
         <v>0.18</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D21" si="0">C3</f>
+        <f t="shared" ref="D3:D22" si="0">C3</f>
         <v>0.18</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E21" si="1">B3 - C3</f>
+        <f t="shared" ref="E3:E22" si="1">B3 - C3</f>
         <v>0.82000000000000006</v>
       </c>
     </row>
@@ -595,14 +598,8 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -712,14 +709,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -777,23 +768,36 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0.8</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.19999999999999996</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4 A4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -50,9 +50,6 @@
     <t>socket to Gui</t>
   </si>
   <si>
-    <t>color theme</t>
-  </si>
-  <si>
     <t>remove friend</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>create logo</t>
+  </si>
+  <si>
+    <t>change color</t>
   </si>
 </sst>
 </file>
@@ -127,17 +127,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -437,7 +427,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +461,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -490,7 +480,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>0.5</v>
@@ -509,7 +499,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -560,7 +550,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0.25</v>
@@ -603,26 +593,26 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
       </c>
       <c r="C11" s="1">
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>2.5</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>0.75</v>
@@ -641,7 +631,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
         <v>0.75</v>
@@ -660,7 +650,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1">
         <v>7</v>
@@ -691,7 +681,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>10</v>
@@ -714,7 +704,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
         <v>0.75</v>
@@ -733,7 +723,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -750,7 +740,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -773,7 +763,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -792,12 +782,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4 A4">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E22">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\3Klasse\syp\repositories\CHAT-PACK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Dokumente\Schule\HTL\3. Klasse\Projekt Entwicklung\hallo\CHAT-PACK\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_9DBC1F0677EDBD7B1332498245BB8223430FCAF9" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -125,7 +126,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -423,14 +424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Dokumente\Schule\HTL\3. Klasse\Projekt Entwicklung\hallo\CHAT-PACK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_9DBC1F0677EDBD7B1332498245BB8223430FCAF9" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_9DBC1F0677EDBD7B1332498245BB8223430FCAF9" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{0498E729-3446-4F11-ACB9-C1BB527066DA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>change color</t>
+  </si>
+  <si>
+    <t>Log in screen</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,13 +784,36 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" ref="E23:E24" si="2">B24 - C24</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E4 A4">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E22">
+  <conditionalFormatting sqref="E4:E24">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Dokumente\Schule\HTL\3. Klasse\Projekt Entwicklung\hallo\CHAT-PACK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_9DBC1F0677EDBD7B1332498245BB8223430FCAF9" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{0498E729-3446-4F11-ACB9-C1BB527066DA}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_9DBC1F0677EDBD7B1332498245BB8223430FCAF9" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{8AFFB096-7D86-4DFB-8167-0623D1DC9B14}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,12 +474,11 @@
         <v>0.18</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D22" si="0">C3</f>
         <v>0.18</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E22" si="1">B3 - C3</f>
-        <v>0.82000000000000006</v>
+        <f>C3 - D3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -493,12 +492,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <f>B4 - C4</f>
-        <v>-1.5</v>
+        <f t="shared" ref="E4:E24" si="0">C4 - D4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -512,11 +510,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="2"/>
@@ -524,14 +521,8 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -544,12 +535,11 @@
         <v>1.2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -562,13 +552,12 @@
       <c r="C8">
         <v>0.2</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
+      <c r="D8">
         <v>0.2</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>4.9999999999999989E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -581,19 +570,21 @@
       <c r="C9">
         <v>0.5</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
+      <c r="D9">
         <v>0.5</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -606,12 +597,11 @@
         <v>2.5</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -622,14 +612,13 @@
         <v>0.75</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -641,14 +630,13 @@
         <v>0.75</v>
       </c>
       <c r="C13" s="1">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
     </row>
@@ -663,25 +651,18 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <f>C14</f>
         <v>5</v>
       </c>
       <c r="E14" s="1">
-        <f>B14 - C14</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -691,19 +672,17 @@
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,12 +696,11 @@
         <v>1.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.75</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -733,13 +711,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,14 +724,15 @@
       <c r="B20" s="1">
         <v>3</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,18 +751,16 @@
       <c r="C22">
         <v>0.8</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
+      <c r="D22">
         <v>0.8</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -799,22 +773,17 @@
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" ref="E23:E24" si="2">B24 - C24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4 A4">
+  <conditionalFormatting sqref="A4">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>change color</t>
+  </si>
+  <si>
+    <t>set default picture</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -424,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,11 +483,11 @@
         <v>0.18</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D22" si="0">C3</f>
+        <f t="shared" ref="D3:D23" si="0">C3</f>
         <v>0.18</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E22" si="1">B3 - C3</f>
+        <f t="shared" ref="E3:E23" si="1">B3 - C3</f>
         <v>0.82000000000000006</v>
       </c>
     </row>
@@ -780,14 +793,27 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C23">
+        <v>0.25</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E4 A4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E4:E23">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="oof">Sheet1!$D$24</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -87,6 +90,9 @@
   </si>
   <si>
     <t>set default picture</t>
+  </si>
+  <si>
+    <t>tb for each friend</t>
   </si>
 </sst>
 </file>
@@ -130,17 +136,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -437,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,12 +479,11 @@
         <v>0.18</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D23" si="0">C3</f>
         <v>0.18</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E23" si="1">B3 - C3</f>
-        <v>0.82000000000000006</v>
+        <f>C3 - D3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -502,12 +497,11 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <f>B4 - C4</f>
-        <v>-1.5</v>
+        <f t="shared" ref="E4:E23" si="0">C4 - D4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -521,11 +515,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5" s="2"/>
@@ -533,12 +526,9 @@
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -553,12 +543,11 @@
         <v>1.2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -568,16 +557,15 @@
       <c r="B8">
         <v>0.25</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.2</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>4.9999999999999989E-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -587,22 +575,24 @@
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.5</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -615,12 +605,11 @@
         <v>2.5</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -631,15 +620,14 @@
         <v>0.75</v>
       </c>
       <c r="C12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -652,13 +640,10 @@
       <c r="C13" s="1">
         <v>0</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -672,23 +657,19 @@
         <v>5</v>
       </c>
       <c r="D14" s="1">
-        <f>C14</f>
         <v>5</v>
       </c>
       <c r="E14" s="1">
-        <f>B14 - C14</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -699,23 +680,22 @@
       <c r="B16" s="1">
         <v>10</v>
       </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -726,94 +706,116 @@
         <v>1.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1">
+        <v>3.32</v>
+      </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>32/60</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.8</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1">
         <v>0.3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>0.25</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4 A4">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E23">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="A4">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>tb for each friend</t>
+  </si>
+  <si>
+    <t>change username</t>
+  </si>
+  <si>
+    <t>in houres</t>
   </si>
 </sst>
 </file>
@@ -136,17 +142,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -435,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +481,9 @@
         <f>C3 - D3</f>
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -500,7 +499,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E23" si="0">C4 - D4</f>
+        <f t="shared" ref="E4:E25" si="0">C4 - D4</f>
         <v>0</v>
       </c>
     </row>
@@ -593,6 +592,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J10">
+        <f>20/60</f>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -629,6 +632,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J12">
+        <f>0.2*60</f>
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -644,6 +651,10 @@
       <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="J13">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -797,6 +808,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I23">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -808,14 +823,35 @@
       <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -136,17 +136,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -436,7 +426,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E23" si="0">C4 - D4</f>
+        <f t="shared" ref="E4:E24" si="0">C4 - D4</f>
         <v>0</v>
       </c>
     </row>
@@ -808,14 +798,20 @@
       <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Task</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>tb for each friend</t>
+  </si>
+  <si>
+    <t>save changed user name</t>
+  </si>
+  <si>
+    <t>generate info at right corner</t>
   </si>
 </sst>
 </file>
@@ -423,15 +429,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="5" width="11" customWidth="1"/>
@@ -490,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E24" si="0">C4 - D4</f>
+        <f t="shared" ref="E4:E30" si="0">C4 - D4</f>
         <v>0</v>
       </c>
     </row>
@@ -733,14 +739,14 @@
         <v>3</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -807,7 +813,58 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="1"/>
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E27" s="1">
+        <f>C27 - D27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Task</t>
   </si>
@@ -56,9 +56,6 @@
     <t>remove friend</t>
   </si>
   <si>
-    <t>daily stats at right top</t>
-  </si>
-  <si>
     <t>datenbank aufsetzen</t>
   </si>
   <si>
@@ -99,6 +96,12 @@
   </si>
   <si>
     <t>generate info at right corner</t>
+  </si>
+  <si>
+    <t>accept changed image pic</t>
+  </si>
+  <si>
+    <t>friendship status</t>
   </si>
 </sst>
 </file>
@@ -114,12 +117,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -134,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +477,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -484,7 +495,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>0.5</v>
@@ -502,7 +513,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -548,7 +559,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>0.25</v>
@@ -560,24 +571,6 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -592,7 +585,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>0.5</v>
@@ -627,24 +620,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>7</v>
@@ -671,7 +654,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>10</v>
@@ -711,7 +694,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
@@ -733,7 +716,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1">
         <v>3</v>
@@ -744,7 +727,7 @@
       <c r="D20" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -760,7 +743,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
@@ -778,7 +761,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1">
         <v>0.3</v>
@@ -796,7 +779,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -814,7 +797,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
@@ -832,7 +815,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="1">
         <v>1.5</v>
@@ -849,21 +832,63 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="1">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="E31" s="3">
+        <f>C31 - D31</f>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Schule\3Klasse\syp\repositories\CHAT-PACK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\OneDrive\Dokumente\Schule\HTL\3. Klasse\Projekt Entwicklung\hallo\CHAT-PACK\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_6C3D5DFCCC82F3A8E819B88D396091BF2AC76792" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{A95649B6-C958-4CBE-A6CF-65C88538952B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="oof">Sheet1!$D$24</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -102,12 +103,18 @@
   </si>
   <si>
     <t>friendship status</t>
+  </si>
+  <si>
+    <t>create Test Specification</t>
+  </si>
+  <si>
+    <t>create Test Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +158,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -439,14 +446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -891,6 +898,45 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" ref="E32:E34" si="1">C33 - D33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <v>0.5</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="oof">Sheet1!$D$24</definedName>
+    <definedName name="oof">Sheet1!$D$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>friendship status</t>
+  </si>
+  <si>
+    <t>Status/current activity</t>
+  </si>
+  <si>
+    <t>hide messbox</t>
   </si>
 </sst>
 </file>
@@ -440,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E30" si="0">C4 - D4</f>
+        <f t="shared" ref="E4:E8" si="0">C4 - D4</f>
         <v>0</v>
       </c>
     </row>
@@ -576,138 +582,148 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.5</v>
+      </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f>C10 - D10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C11" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f>C11 - D11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:E24" si="1">C13 - D13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10</v>
-      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.5</v>
+      </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>1.5</v>
+        <v>3.32</v>
       </c>
       <c r="D18" s="1">
-        <v>1.5</v>
+        <v>3.32</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1">
         <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>3.32</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
-        <v>3.32</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="J19">
         <f>32/60</f>
@@ -715,180 +731,195 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.8</v>
+      </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="C22" s="1">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="D22" s="1">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="1">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1">
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1">
         <v>1.5</v>
       </c>
-      <c r="D25" s="1">
+      <c r="C26" s="1">
         <v>1.5</v>
       </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
+      <c r="D26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ref="E26:E32" si="2">C26 - D26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="1">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C27" s="1">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="D27" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="E27" s="1">
-        <f>C27 - D27</f>
+        <v>1.75</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1">
         <v>3</v>
       </c>
-      <c r="C29" s="1">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="C30" s="1">
+        <v>9</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="E31" s="3">
-        <f>C31 - D31</f>
-        <v>4.5</v>
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>0.75</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -898,5 +929,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Task</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>hide messbox</t>
+  </si>
+  <si>
+    <t>create Test Specification</t>
+  </si>
+  <si>
+    <t>create Test Report</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +831,7 @@
         <v>1.5</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" ref="E26:E32" si="2">C26 - D26</f>
+        <f t="shared" ref="E26:E38" si="2">C26 - D26</f>
         <v>0</v>
       </c>
     </row>
@@ -920,6 +926,66 @@
       <c r="E32" s="3">
         <f t="shared" si="2"/>
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C35">
+        <v>0.5</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/monitoring.xlsx
+++ b/monitoring.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>create Test Report</t>
+  </si>
+  <si>
+    <t>friendsview animation</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,6 +974,18 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
       <c r="E36" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
